--- a/organisatorisches/Arbeitszeitererfassung.xlsx
+++ b/organisatorisches/Arbeitszeitererfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\3-Klasse\MuscleOn\organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_HTL\Projekt\MuscleOn-Project\organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89620482-4FE2-40D4-A2BA-18E844F42038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6ECFE6-3FE6-4940-8826-1379C94295EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="3000" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Website Layout design im CSS</t>
+  </si>
+  <si>
+    <t>Projektdefinition, Testen der Sensoren</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,15 +480,15 @@
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -505,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45953</v>
       </c>
@@ -526,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45964</v>
       </c>
@@ -547,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45966</v>
       </c>
@@ -568,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45967</v>
       </c>
@@ -586,7 +589,7 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -596,7 +599,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -606,7 +609,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -616,7 +619,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -626,7 +629,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -636,7 +639,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -646,7 +649,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -656,7 +659,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -666,7 +669,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -676,7 +679,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -686,7 +689,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -696,7 +699,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -706,7 +709,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -716,7 +719,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -726,7 +729,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -736,7 +739,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -760,19 +763,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120DD9C-1362-4D37-9354-18E917575919}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45953</v>
       </c>
@@ -813,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45964</v>
       </c>
@@ -827,14 +830,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E5" si="0">IF(C3-B3-IF(ISNUMBER(D3), D3, 0) &lt;&gt; 0, C3-B3-IF(ISNUMBER(D3), D3, 0), "")</f>
+        <f t="shared" ref="E3" si="0">IF(C3-B3-IF(ISNUMBER(D3), D3, 0) &lt;&gt; 0, C3-B3-IF(ISNUMBER(D3), D3, 0), "")</f>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45967</v>
       </c>
@@ -855,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -865,17 +868,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7" t="str">
-        <f t="shared" ref="E3:E20" si="2">IF(C6-B6-IF(ISNUMBER(D6), D6, 0) &lt;&gt; 0, C6-B6-IF(ISNUMBER(D6), D6, 0), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E6:E20" si="2">IF(C6-B6-IF(ISNUMBER(D6), D6, 0) &lt;&gt; 0, C6-B6-IF(ISNUMBER(D6), D6, 0), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -885,7 +888,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -895,7 +898,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -905,7 +908,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -915,7 +918,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -925,7 +928,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -935,7 +938,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -945,7 +948,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -955,7 +958,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -965,7 +968,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -975,7 +978,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -985,7 +988,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -995,7 +998,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1005,7 +1008,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1015,7 +1018,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -1039,19 +1042,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45953</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45964</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45967</v>
       </c>
@@ -1130,8 +1133,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1141,7 +1147,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1151,7 +1157,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1161,7 +1167,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1171,7 +1177,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1181,7 +1187,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1191,7 +1197,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1201,7 +1207,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1211,7 +1217,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1221,7 +1227,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1231,7 +1237,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1241,7 +1247,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1251,7 +1257,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1261,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1271,7 +1277,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1281,7 +1287,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1291,7 +1297,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>

--- a/organisatorisches/Arbeitszeitererfassung.xlsx
+++ b/organisatorisches/Arbeitszeitererfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_HTL\Projekt\MuscleOn-Project\organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\3-Klasse\MuscleOn\MuscleOn-Project\organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6ECFE6-3FE6-4940-8826-1379C94295EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E5F47-A514-46F4-AF81-F73824F5024A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="770" yWindow="2660" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="3" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>Website Layout design im CSS</t>
   </si>
   <si>
-    <t>Projektdefinition, Testen der Sensoren</t>
+    <t>Website Color design im CSS</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,15 +480,15 @@
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45953</v>
       </c>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45964</v>
       </c>
@@ -550,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>45966</v>
       </c>
@@ -571,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45967</v>
       </c>
@@ -589,7 +589,7 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -599,7 +599,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -609,7 +609,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -619,7 +619,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -629,7 +629,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -639,7 +639,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -649,7 +649,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -659,7 +659,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -669,7 +669,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -679,7 +679,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -689,7 +689,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -699,7 +699,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -709,7 +709,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -719,7 +719,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -729,7 +729,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -739,7 +739,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -763,19 +763,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120DD9C-1362-4D37-9354-18E917575919}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45953</v>
       </c>
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45964</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>45967</v>
       </c>
@@ -858,17 +858,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>45974</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.40625</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -878,7 +887,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -888,7 +897,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -898,7 +907,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -908,7 +917,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -918,7 +927,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -928,7 +937,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -938,7 +947,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -948,7 +957,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -958,7 +967,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -968,7 +977,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -978,7 +987,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -988,7 +997,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -998,7 +1007,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1008,7 +1017,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1018,7 +1027,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1036,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="8">
         <f>SUM(E2:E20)</f>
-        <v>0.21527777777777779</v>
+        <v>0.28819444444444448</v>
       </c>
     </row>
   </sheetData>
@@ -1042,19 +1051,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45953</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45964</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>45967</v>
       </c>
@@ -1133,11 +1142,8 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1147,7 +1153,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1157,7 +1163,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1167,7 +1173,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1177,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1187,7 +1193,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1197,7 +1203,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1207,7 +1213,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1217,7 +1223,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1227,7 +1233,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1237,7 +1243,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1247,7 +1253,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1257,7 +1263,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1267,7 +1273,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1277,7 +1283,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1287,7 +1293,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1297,7 +1303,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
